--- a/Stock-Research/Dividend Growth/GD/GD.xlsx
+++ b/Stock-Research/Dividend Growth/GD/GD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Research/Dividend Growth/GD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{99894C8A-D54C-48B5-A4DC-0164A0AFDDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C1FD70-6772-4D48-993D-039535B87001}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{99894C8A-D54C-48B5-A4DC-0164A0AFDDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01ED7699-5E79-4CDB-81F5-7A5794924810}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="8" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -520,6 +520,7 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,7 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1501,7 +1501,7 @@
       <c r="J4" s="29">
         <v>1.9782393669634E-2</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="33">
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       <c r="J5" s="29">
         <v>2.8735632183908E-2</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="33">
         <v>7.0900000000000005E-2</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       <c r="J6" s="29">
         <v>3.06563850295818E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="33">
         <v>6.5699999999999995E-2</v>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       <c r="J7" s="29">
         <v>2.5264696768919299E-2</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="33">
         <v>6.4399999999999999E-2</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="J8" s="29">
         <v>2.1469515372589801E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="33">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       <c r="J9" s="29">
         <v>1.8786936684530801E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="33">
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       <c r="J10" s="29">
         <v>1.50425207648648E-2</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="33">
         <v>5.6500000000000002E-2</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       <c r="J11" s="29">
         <v>1.79762369295214E-2</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="33">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       <c r="J12" s="29">
         <v>1.4335084668240201E-2</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="33">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="J13" s="29">
         <v>1.38053790063898E-2</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="33">
         <v>4.6100000000000002E-2</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="J14" s="29">
         <v>1.6516129032257999E-2</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="33">
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="J15" s="29">
         <v>1.44636405997413E-2</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="33">
         <v>4.2700000000000002E-2</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       <c r="J16" s="29">
         <v>1.39275766016713E-2</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="33">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="J17" s="29">
         <v>1.33935070607075E-2</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="33">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="J18" s="29">
         <v>1.35720135720135E-2</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="33">
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="J19" s="29">
         <v>1.5907283263265501E-2</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="33">
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="J20" s="29">
         <v>2.5981256603025499E-2</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="33">
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="J21" s="29">
         <v>2.47495601921481E-2</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="33">
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       <c r="J22" s="29">
         <v>2.65555478406331E-2</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="33">
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="J23" s="29">
         <v>3.05801236072611E-2</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="33">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="J24" s="29">
         <v>2.8331133674059698E-2</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="33">
         <v>2.35E-2</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       <c r="J25" s="29">
         <v>2.07849125332406E-2</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="33">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       <c r="J26" s="29">
         <v>1.9138761870695301E-2</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="33">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="J27" s="29">
         <v>2.0536615233216999E-2</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="33">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="J28" s="29">
         <v>1.67205772580243E-2</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="33">
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="J29" s="29">
         <v>1.8616755079571601E-2</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="33">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="J30" s="29">
         <v>2.23733275513751E-2</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="33">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       <c r="J31" s="29">
         <v>2.96156693814363E-2</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="33">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="J32" s="29">
         <v>2.4785939612438E-2</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="33">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="J33" s="29">
         <v>2.1781906374410801E-2</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="33">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D69F2-57A8-4AF2-8759-F26D94DB8BCC}">
   <dimension ref="B3:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
         <v>2.11870100783874</v>
       </c>
       <c r="N4" s="3">
-        <v>0.18099999999999999</v>
+        <v>0.18100000000000002</v>
       </c>
       <c r="O4" s="4">
         <v>26.46408839779</v>
@@ -2627,7 +2627,7 @@
         <v>11.765258215962399</v>
       </c>
       <c r="N5" s="3">
-        <v>0.22500000000000001</v>
+        <v>4.4569999999999999</v>
       </c>
       <c r="O5" s="4">
         <v>41.1111111111111</v>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="T5" s="31">
         <f>(Table2[[#This Row],[Div]]-N4)/N4</f>
-        <v>0.24309392265193377</v>
+        <v>23.624309392265189</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
         <v>12.6759061833688</v>
       </c>
       <c r="N6" s="3">
-        <v>0.29399999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="O6" s="4">
         <v>18.0272108843537</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="T6" s="31">
         <f>(Table2[[#This Row],[Div]]-N5)/N5</f>
-        <v>0.30666666666666659</v>
+        <v>-0.93381198115324215</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>12.3933649289099</v>
       </c>
       <c r="N7" s="3">
-        <v>0.36899999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="O7" s="4">
         <v>28.699186991869901</v>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="T7" s="31">
         <f>(Table2[[#This Row],[Div]]-N6)/N6</f>
-        <v>0.25510204081632659</v>
+        <v>0.25423728813559326</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>17.5233644859813</v>
       </c>
       <c r="N8" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="O8" s="4">
         <v>35.935162094763001</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="T8" s="31">
         <f>(Table2[[#This Row],[Div]]-N7)/N7</f>
-        <v>8.672086720867217E-2</v>
+        <v>8.9189189189189264E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>16.4688644688644</v>
       </c>
       <c r="N9" s="3">
-        <v>0.41</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="O9" s="4">
         <v>38.560975609756099</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="T9" s="31">
         <f>(Table2[[#This Row],[Div]]-N8)/N8</f>
-        <v>2.2443890274314093E-2</v>
+        <v>2.2332506203473827E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="T10" s="31">
         <f>(Table2[[#This Row],[Div]]-N9)/N9</f>
-        <v>5.6097560975609806E-2</v>
+        <v>5.0970873786407814E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>18.036124794745401</v>
       </c>
       <c r="N16" s="3">
-        <v>0.88</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="O16" s="4">
         <v>48.920454545454497</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="T16" s="31">
         <f>(Table2[[#This Row],[Div]]-N15)/N15</f>
-        <v>0.3968253968253968</v>
+        <v>0.1111111111111112</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>16.7673130193905</v>
       </c>
       <c r="N17" s="3">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="O17" s="4">
         <v>61.737499999999997</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="T17" s="31">
         <f>(Table2[[#This Row],[Div]]-N16)/N16</f>
-        <v>-9.090909090909087E-2</v>
+        <v>0.11428571428571421</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
         <v>17.037280701754302</v>
       </c>
       <c r="N18" s="3">
-        <v>0.69</v>
+        <v>0.89000000000000012</v>
       </c>
       <c r="O18" s="4">
         <v>82.318840579710098</v>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="T18" s="31">
         <f>(Table2[[#This Row],[Div]]-N17)/N17</f>
-        <v>-0.13750000000000012</v>
+        <v>0.14102564102564114</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -3509,7 +3509,7 @@
         <v>18.503937007874001</v>
       </c>
       <c r="N19" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="O19" s="4">
         <v>67.227272727272705</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="T19" s="31">
         <f>(Table2[[#This Row],[Div]]-N18)/N18</f>
-        <v>0.59420289855072495</v>
+        <v>0.23595505617977497</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>15.332252836304599</v>
       </c>
       <c r="N20" s="3">
-        <v>1.34</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="O20" s="4">
         <v>36.223880597014897</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="T20" s="31">
         <f>(Table2[[#This Row],[Div]]-N19)/N19</f>
-        <v>0.21818181818181814</v>
+        <v>0.2181818181818182</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <v>11.452188006482899</v>
       </c>
       <c r="N21" s="3">
-        <v>1.87</v>
+        <v>1.4900000000000002</v>
       </c>
       <c r="O21" s="4">
         <v>19.417112299465199</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="T21" s="31">
         <f>(Table2[[#This Row],[Div]]-N20)/N20</f>
-        <v>0.39552238805970147</v>
+        <v>0.11194029850746297</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>11.552129221732701</v>
       </c>
       <c r="N22" s="3">
-        <v>1.68</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="O22" s="4">
         <v>33.255952380952301</v>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="T22" s="31">
         <f>(Table2[[#This Row],[Div]]-N21)/N21</f>
-        <v>-0.1016042780748664</v>
+        <v>0.10067114093959724</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>11.3697234352256</v>
       </c>
       <c r="N23" s="3">
-        <v>1.41</v>
+        <v>1.8299999999999998</v>
       </c>
       <c r="O23" s="4">
         <v>39.4822695035461</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="T23" s="31">
         <f>(Table2[[#This Row],[Div]]-N22)/N22</f>
-        <v>-0.16071428571428573</v>
+        <v>0.11585365853658519</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="T24" s="31">
         <f>(Table2[[#This Row],[Div]]-N23)/N23</f>
-        <v>0.78014184397163111</v>
+        <v>0.37158469945355194</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>14.3253373313343</v>
       </c>
       <c r="N25" s="3">
-        <v>1.68</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="O25" s="4">
         <v>38.434523809523803</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="T25" s="31">
         <f>(Table2[[#This Row],[Div]]-N24)/N24</f>
-        <v>-0.33067729083665337</v>
+        <v>-0.33067729083665326</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="T26" s="31">
         <f>(Table2[[#This Row],[Div]]-N25)/N25</f>
-        <v>0.44047619047619047</v>
+        <v>0.4404761904761903</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
@@ -4013,7 +4013,7 @@
         <v>16.499461786867599</v>
       </c>
       <c r="N27" s="3">
-        <v>3.38</v>
+        <v>2.69</v>
       </c>
       <c r="O27" s="4">
         <v>38.837278106508798</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="T27" s="31">
         <f>(Table2[[#This Row],[Div]]-N26)/N26</f>
-        <v>0.39669421487603307</v>
+        <v>0.11157024793388431</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>21.5524728588661</v>
       </c>
       <c r="N28" s="3">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="O28" s="4">
         <v>40.848684210526301</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="T28" s="31">
         <f>(Table2[[#This Row],[Div]]-N27)/N27</f>
-        <v>-0.10059171597633132</v>
+        <v>0.10408921933085512</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>22.370292887029201</v>
       </c>
       <c r="N29" s="3">
-        <v>2.52</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="O29" s="4">
         <v>69.571428571428498</v>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="T29" s="31">
         <f>(Table2[[#This Row],[Div]]-N28)/N28</f>
-        <v>-0.17105263157894737</v>
+        <v>0.10437710437710439</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="T30" s="31">
         <f>(Table2[[#This Row],[Div]]-N29)/N29</f>
-        <v>0.44047619047619041</v>
+        <v>0.10670731707317062</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
@@ -9453,20 +9453,20 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
@@ -9699,18 +9699,18 @@
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -9888,33 +9888,33 @@
   </sheetPr>
   <dimension ref="C2:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
@@ -9933,7 +9933,7 @@
         <v>43</v>
       </c>
       <c r="L4" s="15">
-        <v>3</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
@@ -9953,7 +9953,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="15">
-        <v>1</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" ref="L7:L36" si="1">($L$4/$L$5)^(1/K7)-1</f>
-        <v>2</v>
+        <v>1.9583333333333335</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>0.73205080756887719</v>
+        <v>0.71998062004585783</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>0.4422495703074083</v>
+        <v>0.43554133579677834</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>0.3160740129524926</v>
+        <v>0.31148031630133821</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>0.2457309396155174</v>
+        <v>0.24225118987529881</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>0.20093695517600274</v>
+        <v>0.19814078296199322</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>0.16993081275868693</v>
+        <v>0.16759558426334631</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>0.1472026904398771</v>
+        <v>0.14519881081903763</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>0.12983096390975302</v>
+        <v>0.1280765397793211</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>0.11612317403390437</v>
+        <v>0.11456322829855581</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>0.10503150339646661</v>
+        <v>0.10362737460802207</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>9.5872691135244326E-2</v>
+        <v>9.4596173463982636E-2</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="1"/>
-        <v>8.8182243463316823E-2</v>
+        <v>8.701213607870617E-2</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="1"/>
-        <v>8.1633400352765895E-2</v>
+        <v>8.0553369465546698E-2</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>7.5989624725345761E-2</v>
+        <v>7.498682222902997E-2</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>7.1075483072914558E-2</v>
+        <v>7.01396221143471E-2</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="1"/>
-        <v>6.6758117132845296E-2</v>
+        <v>6.5880834699238555E-2</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="1"/>
-        <v>6.2935070411054284E-2</v>
+        <v>6.2109476362639748E-2</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="1"/>
-        <v>5.9526064738275153E-2</v>
+        <v>5.8746415524076223E-2</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="1"/>
-        <v>5.6467308549537965E-2</v>
+        <v>5.5728766444561595E-2</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="1"/>
-        <v>5.3707472093069475E-2</v>
+        <v>5.3005924420547634E-2</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="1"/>
-        <v>5.1204786612231379E-2</v>
+        <v>5.0536707882224308E-2</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="1"/>
-        <v>4.8924917645292609E-2</v>
+        <v>4.8287262946895559E-2</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="1"/>
-        <v>4.6839381727323159E-2</v>
+        <v>4.6229503246769887E-2</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="1"/>
-        <v>4.4924351144087549E-2</v>
+        <v>4.4339932043053754E-2</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="1"/>
-        <v>4.3159740146885062E-2</v>
+        <v>4.25987416445055E-2</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="1"/>
-        <v>4.1528498231435007E-2</v>
+        <v>4.098911684940032E-2</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="1"/>
-        <v>4.0016057737939814E-2</v>
+        <v>3.9496690454349892E-2</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="1"/>
-        <v>3.8609897842622809E-2</v>
+        <v>3.8109113462576838E-2</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="1"/>
-        <v>3.7299197302950615E-2</v>
+        <v>3.6815712761448127E-2</v>
       </c>
     </row>
   </sheetData>
